--- a/APEVGLMresults.xlsx
+++ b/APEVGLMresults.xlsx
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">microRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coefficient.estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard.deviation</t>
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
@@ -542,492 +548,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
+        <v>-0.881663858947652</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.364515318138387</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0155748283597102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
+        <v>-0.754461169763996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.329521516580661</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0220465038409799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
+        <v>-0.647004250568831</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.318115122632048</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0419648800320912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
+        <v>-0.596513825179021</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.315175695165836</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0584058882624431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
+        <v>-0.620680832827303</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.33227079987984</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0617624993826577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
+        <v>-0.285099429168091</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.154112037815861</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0643208828565152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
+        <v>-0.537410720160576</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.298825748588687</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0721123212044793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
+        <v>-0.514202433117321</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.299403313439447</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.0859017315223342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
+        <v>-0.461170720965825</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.271264415690775</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0891162162385874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
+        <v>-0.433617271364201</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.26095555797735</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0965826116942628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
+        <v>-0.597480324986597</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.375527400356209</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.111599848998603</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
+        <v>-0.419570708687837</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.267443676745311</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.116690131074335</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="n">
+        <v>-0.490467536968523</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.315147702162675</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.119634382124027</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
+        <v>-0.408629484630203</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.316376906850459</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.196498911030243</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="n">
+        <v>-0.355216819787111</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.283378724324109</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.210021759885926</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" t="n">
+        <v>-0.287121732905659</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.229661086429744</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.211227383128644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="n">
+        <v>-0.329871491541563</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.287877321883799</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.25184678288017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
+        <v>-0.245004465023944</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.224384326754928</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.274878588478327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
+        <v>-0.348128769560585</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.345424398762884</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.313536501255553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
+        <v>-0.149442455745758</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.14973596224917</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.318260040432734</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n">
+        <v>-0.306422447465064</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.310504510836759</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.323714487807688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.345089444852577</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.354039282939981</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.32969878402333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="n">
+        <v>-0.245889183943348</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.263817784858222</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.351314961168173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.315188749376828</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.343774735527391</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.35922295041865</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
+        <v>-8.3427682355096</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.18669510602966</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.363806390333728</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="n">
+        <v>-0.152364219503775</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.183338450953049</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.40594291953165</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
+        <v>-0.224305459606035</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.279696459070824</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.4225759163101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="n">
+        <v>0.134947229295933</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.176128920555754</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.443566596076321</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" t="n">
+        <v>-0.195922873702556</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.259450609233368</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.450161884747158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.139138539550219</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.18748334051655</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.458003637356962</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" t="n">
+        <v>0.207016654052801</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.283929089732085</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.465931975161978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.10285232876952</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.141552316964477</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.467469230598358</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.196839881135614</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.277311831299597</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.477819349989779</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.139436808151526</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.19655793917288</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.478080687253545</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.193794260170447</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.279380471392812</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.487897247415278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.18393297314643</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.287779276975535</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.52272795881066</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
+        <v>0.201056342173471</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.317852257064911</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.527029814091517</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.114156682072102</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.197128958848535</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.562524089080273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.107707636680947</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.202393976732511</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.594609510979709</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="n">
+        <v>0.118818959258143</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.234079657701079</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.611733516033666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" t="n">
+        <v>0.109451018353311</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.218555640713757</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.616517188177943</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B43" t="n">
+        <v>0.141384843832596</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.284346374739323</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.619028614101176</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" t="n">
+        <v>0.11004571221035</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.223133063353661</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.621882406417174</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" t="n">
+        <v>0.0768268613904993</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.181006218937914</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.671242610402889</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.0885156372216025</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.210657226536826</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.674348125494897</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.0902857681608926</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.220977298918531</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.682851685796863</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B48" t="n">
+        <v>0.106072160377625</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.266008488544292</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.690073888460762</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B49" t="n">
+        <v>0.118023229314981</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.300929018060493</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.694913222275513</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B50" t="n">
+        <v>0.144379313189214</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.376612417840631</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.701450541072788</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" t="n">
+        <v>0.0785788094449437</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.217964885398508</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.718464789755504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.198114695472664</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.753011193369894</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.792476113479356</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B53" t="n">
+        <v>0.0264230191217712</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.115720411061815</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.819385823370372</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.0337403837584194</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.147861130087701</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.819498785041497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="n">
+        <v>0.0367598815939547</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.161974231052018</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.820463438707088</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.0492216853361052</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.252335828645898</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.845342692201337</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" t="n">
+        <v>-0.0230500789846644</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.138906282878639</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.868204336086521</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="n">
+        <v>0.0378711890677797</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.244768613005883</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.877040164141936</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" t="n">
+        <v>0.034656388378414</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.280143260218298</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.901545273342656</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B60" t="n">
+        <v>-0.0189673211809697</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.334899962149343</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.954835330523829</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B61" t="n">
+        <v>0.00840803363436508</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.23112782958757</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.970980730231648</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B62" t="n">
+        <v>0.00639221418395881</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.220798684853881</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.976904134835825</v>
       </c>
     </row>
@@ -1052,492 +1430,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
+        <v>-2.86159822625831</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.987901229095155</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.00377177426557524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
+        <v>-3.40538565948748</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.22011112330521</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0052538086268397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
+        <v>-1.97800240500768</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.739832871136778</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.00750463628902298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
+        <v>2.34857229049877</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.900844656310536</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.00913185539883767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
+        <v>-2.07139249266639</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.81556133530175</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0110904283603017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
+        <v>-1.853864453334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.758490261716863</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.014519362941062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
+        <v>-1.11396948200979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.465067330529246</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0166073845092441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="n">
+        <v>-1.53747440510919</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.648783334286576</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.0177986253459359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n">
+        <v>1.6304183164339</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.701050397370855</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0200356717544744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n">
+        <v>-1.78260743354911</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.76710694724501</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0201359145121606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
+        <v>2.27991318502917</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.986068599172231</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.0207708335319406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="n">
+        <v>-1.32468252859471</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.590178422778295</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.0247973024612396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" t="n">
+        <v>-1.73995372962143</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.827039121671916</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.0353928553263581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" t="n">
+        <v>1.05506031052915</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.512177686803422</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.039403342564608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="n">
+        <v>-1.46573323014045</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.713009269369226</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.0398114317738127</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" t="n">
+        <v>1.50913046066767</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.734268964556996</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.0398516861768294</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" t="n">
+        <v>2.33826063511142</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.20171124069332</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.0516816783484473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n">
+        <v>-1.06252365469675</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.588951252573511</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.0712165099941697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="n">
+        <v>-1.47629691884644</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.848268774255786</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.0817950229848772</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" t="n">
+        <v>1.23742165853145</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.759857081462227</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.103420470276894</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" t="n">
+        <v>-1.41333935644785</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.909895104282237</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.120351666352496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.360669521605578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.243057965443154</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.137840029551698</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
+        <v>1.3914111716431</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.938188882108006</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.13805258950939</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.649333367460554</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.443717164279857</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.14335939517204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" t="n">
+        <v>-1.28218355717475</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.894908841817521</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.151928364013013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n">
+        <v>1.08016125362483</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.768524810772923</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.159872791572246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>-0.774917413575595</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.555873118733806</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.163301152506784</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
+        <v>-1.09789967326995</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.875018723347395</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.209582007828014</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
+        <v>-0.380881065477319</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.334768403938885</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.255226992341069</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
+        <v>0.369999087753153</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3358865874346</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.270653189461234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
+        <v>-1.1528376777225</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.04685827371441</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.270794098770468</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" t="n">
+        <v>0.342760293999588</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.348829365533335</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.325803554811802</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.673245762540787</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.693204281223433</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.331444553628649</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" t="n">
+        <v>-0.151241073013962</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.156270309425392</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.333135737043749</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" t="n">
+        <v>0.816751071762878</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.885807700821179</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.356507158523996</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37" t="n">
+        <v>-1.17678923905375</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.3774399983277</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.392921797235556</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="n">
+        <v>-0.359825491638637</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.45716465125696</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.431234603698738</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.283118215130155</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.400116411312879</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.47920014737987</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.339768596298511</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.507912004862864</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.503526292611906</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.333326506401744</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.513822642799565</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.51652002696009</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" t="n">
+        <v>0.17343528419958</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.270553757368679</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.521497887047908</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" t="n">
+        <v>-0.361110610698231</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.565365417737259</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.52300462640306</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="n">
+        <v>0.311104512372082</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.564639714107838</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.581648207150888</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.418328550372998</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.825939759323102</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.612514134155586</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.113867874602141</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.236109953731344</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.629616781385615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.208838041456882</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.447678822905436</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.640864248561702</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" t="n">
+        <v>0.450668841326751</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.99050337530192</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.649116643296014</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B49" t="n">
+        <v>-0.107838802360132</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2658199032357</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.684975019056029</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B50" t="n">
+        <v>-0.144210037804395</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.371667184786126</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.698009721575626</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" t="n">
+        <v>0.234374577998998</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.681065037397118</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.730748890493434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
+        <v>0.244689270058954</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.712738819099526</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.731366413094992</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B53" t="n">
+        <v>0.0712294868078096</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.218055472607336</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.743926839889172</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.118227192238084</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.375714328454233</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.753009870935877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" t="n">
+        <v>0.0926689055951102</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.420807103944146</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.82570210645558</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.138821705237664</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.690978944159196</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.840772201116493</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n">
+        <v>0.024079869719709</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.127289611995469</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.849956539164021</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" t="n">
+        <v>0.139737146167377</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.833108856344008</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.866795884991308</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B59" t="n">
+        <v>0.0736097794872603</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.444539935318107</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.868482429619403</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B60" t="n">
+        <v>-0.110306956336245</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.784404995572868</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.88816619348673</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B61" t="n">
+        <v>-0.0415191598735528</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.363802477033439</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.909138264017824</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B62" t="n">
+        <v>0.0337572882673621</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.25281790647892</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.97850353183445</v>
       </c>
     </row>
@@ -1562,492 +2312,864 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" t="n">
+        <v>4.61257339872556</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0018661739617558</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.0018661739617558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
+        <v>-1.37074314279659</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00615268880004278</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.00615268880004278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
+        <v>-2.66162350849091</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0062536930208732</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.0062536930208732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>-1.84367971421865</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0071671186171764</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0071671186171764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
+        <v>-2.02197733133702</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00771307812962464</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.00771307812962464</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n">
+        <v>-2.35419857939497</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00871047909124326</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.00871047909124326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" t="n">
+        <v>2.29739257407443</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0103659834100422</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0103659834100422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
+        <v>-1.65040759227022</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0114099326065941</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.0114099326065941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="n">
+        <v>-1.37934622532604</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0127177915471585</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0127177915471585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" t="n">
+        <v>2.59652180562499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0127474142074899</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0127474142074899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
+        <v>3.65503038966177</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0142342494653335</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.0142342494653335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
+        <v>-1.76185773793558</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0160925050790291</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.0160925050790291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" t="n">
+        <v>-2.18464991448398</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0183687012781538</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.0183687012781538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="n">
+        <v>-1.25785169040924</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0190088299704859</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.0190088299704859</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
+        <v>1.49592371204198</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0199895953229214</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.0199895953229214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="n">
+        <v>-1.38518798909813</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0242408299581173</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.0242408299581173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B18" t="n">
+        <v>-1.49729726143622</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0247454204865844</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.0247454204865844</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
+        <v>-2.14303235106391</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0291352672935424</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.0291352672935424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" t="n">
+        <v>-2.00702345739383</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0412226170374983</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.0412226170374983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
+        <v>-0.97071569058292</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.042960727199735</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.042960727199735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
+        <v>-1.18610097980528</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0531585963569194</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.0531585963569194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="n">
+        <v>1.5297725659546</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.120414903592605</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.120414903592605</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" t="n">
+        <v>2.19911255510414</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.134719558365227</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.134719558365227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.751366964024321</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.143638085641712</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.143638085641712</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.301383118558409</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.163086221599082</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.163086221599082</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" t="n">
+        <v>-1.13477439226263</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.163349920219017</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.163349920219017</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
+        <v>1.51313574752347</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.171023056026774</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.171023056026774</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" t="n">
+        <v>0.90707565079633</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.197009746503829</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.197009746503829</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" t="n">
+        <v>-0.655912460828837</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.222886860821225</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.222886860821225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.903508245431302</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.244089318687436</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.244089318687436</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="n">
+        <v>-0.656058197015469</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.250111746477698</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.250111746477698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.400676362017597</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.251090230359913</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.251090230359913</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B34" t="n">
+        <v>-1.06160278496686</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.271284937008049</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.271284937008049</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="n">
+        <v>0.368282335765909</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.284713979217068</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.284713979217068</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.927501355565218</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.288825089931967</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.288825089931967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.557625208259308</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.332590024191343</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.332590024191343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="n">
+        <v>0.369605029004007</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.335682577709234</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.335682577709234</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B39" t="n">
+        <v>-0.778208742315979</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.365906082974989</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.365906082974989</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.116062407592067</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.422612564295183</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.422612564295183</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.283911094641024</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.426328773479952</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.426328773479952</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n">
+        <v>-0.4287677901111</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.428478198130922</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.428478198130922</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B43" t="n">
+        <v>0.992949078039289</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.437406031751343</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.437406031751343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="n">
+        <v>-0.325443105126234</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.437583284955046</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.437583284955046</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.705781310488975</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.46517792868367</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.46517792868367</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" t="n">
+        <v>-0.300919497613843</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.522078271625343</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.522078271625343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.712374950685471</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.599488259576309</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.599488259576309</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B48" t="n">
+        <v>0.122230595317147</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.602504297717664</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.602504297717664</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B49" t="n">
+        <v>0.0827056737932888</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.695917817812696</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.695917817812696</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B50" t="n">
+        <v>-0.250914149573042</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.711662211830941</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.711662211830941</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B51" t="n">
+        <v>-0.0827964341016368</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.721648998505039</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.721648998505039</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.122007782673599</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.727639501838105</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.727639501838105</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B53" t="n">
+        <v>0.18465429757215</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.735086465343041</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.735086465343041</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.056697062193689</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.78756578522417</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.78756578522417</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B55" t="n">
+        <v>0.025149252257354</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.802669619016724</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.802669619016724</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B56" t="n">
+        <v>-0.0908959239379464</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.805786083971315</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.805786083971315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B57" t="n">
+        <v>0.164578695106361</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.828761769577066</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.828761769577066</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B58" t="n">
+        <v>-0.145848578928942</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.838990176932886</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.838990176932886</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" t="n">
+        <v>0.0873363674856435</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.850772361434427</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.850772361434427</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B60" t="n">
+        <v>0.0147135422520595</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.974079263724839</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.974079263724839</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
+        <v>-0.0136943046764382</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.987256250371351</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.987256250371351</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" t="n">
+        <v>0.00893845534151758</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.992721945849144</v>
+      </c>
+      <c r="D62" t="n">
         <v>0.992721945849144</v>
       </c>
     </row>
@@ -2072,484 +3194,850 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="n">
+        <v>-1.55684195469179</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.535221764792098</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.00362842984935689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
+        <v>-3.09711047507164</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.12015142224585</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.00569396550805336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" t="n">
+        <v>-2.0495142523073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.780763915795224</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.00866460425157905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="n">
+        <v>-2.46233957071243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.96748743484684</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.0109250554375269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>-1.54839647325381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.613146617140315</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.0115590266708935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
+        <v>2.0267491856398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.830967400795651</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.0147270023098406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
+        <v>-1.75200416105439</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.753144890540872</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.0200051568589761</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="n">
+        <v>1.43021307632946</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.652033705587934</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.0282738975594735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" t="n">
+        <v>1.66348067699894</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.768226991419659</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0303608560382265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
+        <v>-1.48295083016265</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.692355202769348</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0322020854005725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="n">
+        <v>0.976526510503845</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.462384924560879</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.0346920981651507</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" t="n">
+        <v>1.31142541089312</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.632342185417222</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.0380869901466378</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="n">
+        <v>-1.27881366605902</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.636263736739597</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.044443906502153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>-1.21162249451951</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.611390258459556</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.0475072555801355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
+        <v>-1.69607473471865</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.85974159680528</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.0485214670174558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" t="n">
+        <v>2.09940433846073</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.07654759204726</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.0511610046243656</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B18" t="n">
+        <v>-2.03228988687891</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.04256110833678</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.0512566873221921</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="n">
+        <v>-1.93463980035226</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.994683692415754</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.0517773960849802</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
+        <v>-0.836897253754145</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.472617933491989</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.0765990989272153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="n">
+        <v>0.99200637876438</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.659263512546748</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.132396318402651</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="n">
+        <v>-0.625564699945289</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.426672710636016</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.142608380874166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n">
+        <v>-0.88063728986724</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.629673733147935</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.16194459018478</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
+        <v>1.12660817486145</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.839690667781471</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.17969513899319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" t="n">
+        <v>-0.646751177683947</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.496445812844659</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.192655726677909</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" t="n">
+        <v>-0.914747412313019</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.713052699611518</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.199540821160758</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" t="n">
+        <v>0.922552473498863</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.817865687124431</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.259319930282729</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
+        <v>0.262429619912357</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.233035064575544</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.260107150985915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="n">
+        <v>-0.577467720528113</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.513752312113272</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.261004668051084</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" t="n">
+        <v>0.604004901022288</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.540703441470062</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.263963362444097</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>-0.186741701673813</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.172881370311839</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.280065372646692</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
+        <v>-0.865556934266194</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.841748700078179</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.303816135594353</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B33" t="n">
+        <v>-0.341431720677815</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.338674285905478</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.313386369826359</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34" t="n">
+        <v>-0.310146690297379</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.311480362006567</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.319387045731528</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
+        <v>0.383446081898499</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.386073062155856</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.320614622890383</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="n">
+        <v>-0.39339059161368</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.445376657705378</v>
+      </c>
+      <c r="D36" t="n">
         <v>0.37708707195093</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" t="n">
+        <v>-0.594232295056843</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.67581320994445</v>
+      </c>
+      <c r="D37" t="n">
         <v>0.379246865739358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" t="n">
+        <v>0.398911897732909</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.537365440229984</v>
+      </c>
+      <c r="D38" t="n">
         <v>0.457876812011739</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" t="n">
+        <v>0.118291071733536</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.189008269073289</v>
+      </c>
+      <c r="D39" t="n">
         <v>0.531412477055017</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="n">
+        <v>-0.216796682829593</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.36943014612379</v>
+      </c>
+      <c r="D40" t="n">
         <v>0.55731063158795</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" t="n">
+        <v>-0.218911242550103</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.373351641275533</v>
+      </c>
+      <c r="D41" t="n">
         <v>0.5576466218097</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
+        <v>-0.127561613660302</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.221569683076593</v>
+      </c>
+      <c r="D42" t="n">
         <v>0.564805932266542</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B43" t="n">
+        <v>0.235353760453491</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.425222514835033</v>
+      </c>
+      <c r="D43" t="n">
         <v>0.579932191354513</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
+        <v>0.0695073190289657</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.143093730694305</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.627146711309324</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45" t="n">
+        <v>-0.0386878525993008</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0886243114669562</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.662446656597866</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" t="n">
+        <v>0.128104297109773</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.33968269692122</v>
+      </c>
+      <c r="D46" t="n">
         <v>0.706077519132236</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
+        <v>-0.266643201429495</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.818844164851178</v>
+      </c>
+      <c r="D47" t="n">
         <v>0.744701561433838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B48" t="n">
+        <v>-0.0316212040721067</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.146547166752634</v>
+      </c>
+      <c r="D48" t="n">
         <v>0.829163194014204</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" t="n">
+        <v>-0.0317761996463103</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.152196710528401</v>
+      </c>
+      <c r="D49" t="n">
         <v>0.834617059023612</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B50" t="n">
+        <v>0.0719054319288833</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.400491741553772</v>
+      </c>
+      <c r="D50" t="n">
         <v>0.857511468118088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B51" t="n">
+        <v>-0.0426928585617508</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.317782718610092</v>
+      </c>
+      <c r="D51" t="n">
         <v>0.893128926805148</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B52" t="n">
+        <v>-0.0407713799703619</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.333413803338091</v>
+      </c>
+      <c r="D52" t="n">
         <v>0.902673612693444</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="n">
+        <v>-0.0698833980560103</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.633369134677918</v>
+      </c>
+      <c r="D53" t="n">
         <v>0.912142931199795</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" t="n">
+        <v>-0.0947920109793301</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.01544592715323</v>
+      </c>
+      <c r="D54" t="n">
         <v>0.925625406627149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B55" t="n">
+        <v>0.0211559561988191</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.228276372621936</v>
+      </c>
+      <c r="D55" t="n">
         <v>0.926160215590101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>0.0338633444243755</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.421384796117278</v>
+      </c>
+      <c r="D56" t="n">
         <v>0.935949312040082</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B57" t="n">
+        <v>0.0376127644669444</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.648453043122081</v>
+      </c>
+      <c r="D57" t="n">
         <v>0.953745572373058</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58" t="n">
+        <v>0.0134023061978027</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.281089061387284</v>
+      </c>
+      <c r="D58" t="n">
         <v>0.961971331072256</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B59" t="n">
+        <v>-0.0164306949044799</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.415282864569497</v>
+      </c>
+      <c r="D59" t="n">
         <v>0.968439877071259</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B60" t="n">
+        <v>-0.0192119805352113</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.63144775226413</v>
+      </c>
+      <c r="D60" t="n">
         <v>0.97572787625097</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B61" t="n">
+        <v>0.0151567759285185</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.605615697711356</v>
+      </c>
+      <c r="D61" t="n">
         <v>0.980033385500591</v>
       </c>
     </row>
